--- a/CodePintails_NewEqn/Baseline1/network_inputs_adult_female.xlsx
+++ b/CodePintails_NewEqn/Baseline1/network_inputs_adult_female.xlsx
@@ -579,9 +579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -590,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7773480" y="3386520"/>
-          <a:ext cx="1361160" cy="485280"/>
+          <a:off x="7649640" y="3386520"/>
+          <a:ext cx="1342080" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,9 +654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,8 +665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7732440" y="2175480"/>
-          <a:ext cx="1342080" cy="603360"/>
+          <a:off x="7618320" y="2175480"/>
+          <a:ext cx="1313280" cy="603000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,9 +814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -825,8 +825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7449120" y="2387160"/>
-          <a:ext cx="1309320" cy="488520"/>
+          <a:off x="7334640" y="2387160"/>
+          <a:ext cx="1289880" cy="488160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,8 +905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7389000" y="2389320"/>
-          <a:ext cx="1072440" cy="486720"/>
+          <a:off x="7274520" y="2389320"/>
+          <a:ext cx="1053000" cy="486360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,7 +978,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1056,10 +1056,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1151,7 +1151,7 @@
         <v>32</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,11 +1743,11 @@
       </c>
       <c r="F27" s="35" t="n">
         <f aca="false">$Q$2</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G27" s="35" t="n">
         <f aca="false">$Q$2</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,11 +1766,11 @@
       </c>
       <c r="F28" s="35" t="n">
         <f aca="false">$Q$2</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G28" s="35" t="n">
         <f aca="false">$Q$2</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,11 +1789,11 @@
       </c>
       <c r="F29" s="35" t="n">
         <f aca="false">$Q$2</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G29" s="35" t="n">
         <f aca="false">$Q$2</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,9 +2031,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3014,8 +3014,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
